--- a/data/case1/12/Qlm2_14.xlsx
+++ b/data/case1/12/Qlm2_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.29174180782811732</v>
+        <v>-0.23336480490412725</v>
       </c>
       <c r="B1" s="0">
-        <v>0.29145618957943498</v>
+        <v>0.23318161450306718</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17559799471988757</v>
+        <v>-0.1566683690228956</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1751137895141861</v>
+        <v>0.15628220052232589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.1254096886824172</v>
+        <v>-0.10657863379354637</v>
       </c>
       <c r="B3" s="0">
-        <v>0.12509054142259401</v>
+        <v>0.10630016582479485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11709054146957243</v>
+        <v>-0.098300165849309451</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11654728878365184</v>
+        <v>0.097823991695531021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.11354728881175102</v>
+        <v>-0.094823991709375832</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11168945640105221</v>
+        <v>0.093204215894395759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.01247228149130386</v>
+        <v>-0.052730420987572302</v>
       </c>
       <c r="B6" s="0">
-        <v>0.012291493097150052</v>
+        <v>0.052074242979980312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0022914931649862247</v>
+        <v>-0.042079296499086816</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0022595131632137111</v>
+        <v>0.041929752581006063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0077404867688306567</v>
+        <v>-0.031929752616959739</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0077751619240093994</v>
+        <v>0.031648831022116131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0097751618922305994</v>
+        <v>-0.029648831040187229</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.009798342068781718</v>
+        <v>0.029412813384205094</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.011798342037753429</v>
+        <v>-0.027412813403669745</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.011798433019960086</v>
+        <v>0.027396317957608218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.014798432984580501</v>
+        <v>-0.024396317979674897</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.014800292614055799</v>
+        <v>0.024369395781139502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0093529726763406096</v>
+        <v>-0.020869395804783419</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0092942623297465055</v>
+        <v>0.02067324902097134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0057942623680693472</v>
+        <v>-0.017173249046033234</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0057739716774545258</v>
+        <v>0.017083702057511196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0022260282639487983</v>
+        <v>-0.0090837020938918656</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.002228119880808066</v>
+        <v>0.0090542450537069996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0032281198534205302</v>
+        <v>-0.0080542450734135684</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0032284410197593871</v>
+        <v>0.008035204179507538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.02318301378767762</v>
+        <v>-0.0060352042018951835</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.023292389396232238</v>
+        <v>0.0060037362487341817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003400069173324</v>
+        <v>-0.0040037362714890889</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999616355808</v>
+        <v>0.0039999999722892809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.063126267971860273</v>
+        <v>-0.053608152945422205</v>
       </c>
       <c r="B18" s="0">
-        <v>0.063036673789202524</v>
+        <v>0.053521073993412216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091722643309044</v>
+        <v>-0.04952107400406236</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016793873725007</v>
+        <v>0.048903932313542064</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080167938953366047</v>
+        <v>-0.044903932327367002</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056875365226432</v>
+        <v>0.044733375541394338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056875583589502</v>
+        <v>-0.040733375555944917</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00399999997799938</v>
+        <v>0.040479060767984798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045704100857593133</v>
+        <v>-0.045703566742153257</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045493114004571567</v>
+        <v>0.045492572594470815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040493114036264544</v>
+        <v>-0.040492572611036337</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097870685428916</v>
+        <v>0.040097820136409723</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097870786562666</v>
+        <v>-0.02009782019066364</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999897555298</v>
+        <v>0.019999999945055968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.09721717494175941</v>
+        <v>-0.038473794921726423</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097094196837494096</v>
+        <v>0.038453613385689422</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094594196873005743</v>
+        <v>-0.035953613402066154</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094435899059142514</v>
+        <v>0.035930727830820075</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091935899096565965</v>
+        <v>-0.033430727847514774</v>
       </c>
       <c r="B27" s="0">
-        <v>0.09099903666471576</v>
+        <v>0.033313059434276759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.088999036708756307</v>
+        <v>-0.031313059451212766</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088357600532853908</v>
+        <v>0.031244862122660422</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081357600605387326</v>
+        <v>-0.02424486215271493</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081171566567221021</v>
+        <v>0.024233273520844811</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021171566878816606</v>
+        <v>-0.021165168522453204</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023664684928001</v>
+        <v>0.021023377578856639</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023664762593313</v>
+        <v>-0.014023377610229204</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001374454412741</v>
+        <v>0.014001542812078327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040013745458047367</v>
+        <v>-0.0040015428508564099</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999351998383</v>
+        <v>0.0039999999756759053</v>
       </c>
     </row>
   </sheetData>
